--- a/1-exploratory-data-analysis/housing-descriptive.xlsx
+++ b/1-exploratory-data-analysis/housing-descriptive.xlsx
@@ -5,33 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-excel-stats-for-analytics\1-exploratory-data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\statistics-for-business-analytics\1-exploratory-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE0250F-668A-4EA1-B763-B78E43D2D3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CEE55-DE86-410F-B4C5-E52A42FF148A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="housing" sheetId="1" r:id="rId2"/>
-    <sheet name="frequencies" sheetId="10" state="hidden" r:id="rId3"/>
-    <sheet name="descriptives" sheetId="11" state="hidden" r:id="rId4"/>
+    <sheet name="frequencies" sheetId="10" r:id="rId3"/>
+    <sheet name="descriptives" sheetId="11" r:id="rId4"/>
     <sheet name="histogram" sheetId="12" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">housing!$C$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">housing!$C$2:$C$547</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">housing!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">housing!$C$2:$C$547</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -742,7 +736,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -752,7 +746,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BC2DE315-F716-48BC-AAF3-F665C1B10A40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>lotsize</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1375,7 +1369,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
-              <a:ext cx="6941820" cy="3200400"/>
+              <a:ext cx="6941820" cy="3329940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9661,7 +9655,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3739AD30-EC53-42F9-A689-05C311C0DB1A}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3739AD30-EC53-42F9-A689-05C311C0DB1A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -10037,21 +10031,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -10073,17 +10067,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="12" max="13" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -10124,7 +10118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10165,7 +10159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10206,7 +10200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10247,7 +10241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10288,7 +10282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10329,7 +10323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10370,7 +10364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10411,7 +10405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10452,7 +10446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10493,7 +10487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10534,7 +10528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10575,7 +10569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10616,7 +10610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10657,7 +10651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10698,7 +10692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10739,7 +10733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10780,7 +10774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10821,7 +10815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10862,7 +10856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10903,7 +10897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10944,7 +10938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10985,7 +10979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11026,7 +11020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11067,7 +11061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11108,7 +11102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11149,7 +11143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11190,7 +11184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11231,7 +11225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11272,7 +11266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11313,7 +11307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11354,7 +11348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11395,7 +11389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11436,7 +11430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11477,7 +11471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11518,7 +11512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11559,7 +11553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11600,7 +11594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11641,7 +11635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11682,7 +11676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11723,7 +11717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11764,7 +11758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11805,7 +11799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11846,7 +11840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11887,7 +11881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11928,7 +11922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11969,7 +11963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12010,7 +12004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12051,7 +12045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12092,7 +12086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12133,7 +12127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12174,7 +12168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12215,7 +12209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12256,7 +12250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12297,7 +12291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12338,7 +12332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12379,7 +12373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12420,7 +12414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12461,7 +12455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12502,7 +12496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12543,7 +12537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12584,7 +12578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12625,7 +12619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12666,7 +12660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12707,7 +12701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12748,7 +12742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12789,7 +12783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12830,7 +12824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12871,7 +12865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12912,7 +12906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12953,7 +12947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12994,7 +12988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13035,7 +13029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13076,7 +13070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -13117,7 +13111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -13158,7 +13152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13199,7 +13193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13240,7 +13234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13281,7 +13275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13322,7 +13316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13363,7 +13357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13404,7 +13398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13445,7 +13439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13486,7 +13480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13527,7 +13521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13568,7 +13562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13609,7 +13603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13650,7 +13644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13691,7 +13685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13732,7 +13726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13773,7 +13767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13814,7 +13808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13855,7 +13849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13896,7 +13890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13937,7 +13931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13978,7 +13972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14019,7 +14013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14060,7 +14054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14101,7 +14095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14142,7 +14136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14183,7 +14177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14224,7 +14218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14265,7 +14259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14306,7 +14300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14347,7 +14341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14388,7 +14382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14429,7 +14423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14470,7 +14464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14511,7 +14505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14552,7 +14546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14593,7 +14587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14634,7 +14628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14675,7 +14669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14716,7 +14710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14757,7 +14751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14798,7 +14792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14839,7 +14833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14880,7 +14874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14921,7 +14915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14962,7 +14956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -15003,7 +14997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -15044,7 +15038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -15085,7 +15079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -15126,7 +15120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -15167,7 +15161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -15208,7 +15202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -15249,7 +15243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -15290,7 +15284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15331,7 +15325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -15372,7 +15366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15413,7 +15407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15454,7 +15448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15495,7 +15489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15536,7 +15530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15577,7 +15571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15618,7 +15612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15659,7 +15653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15700,7 +15694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15741,7 +15735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15782,7 +15776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15823,7 +15817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15864,7 +15858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15905,7 +15899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15946,7 +15940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15987,7 +15981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16028,7 +16022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16069,7 +16063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16110,7 +16104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16151,7 +16145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16192,7 +16186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16233,7 +16227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16274,7 +16268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16315,7 +16309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16356,7 +16350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16397,7 +16391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16438,7 +16432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16479,7 +16473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16520,7 +16514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16561,7 +16555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16602,7 +16596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16643,7 +16637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16684,7 +16678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16725,7 +16719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16766,7 +16760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16807,7 +16801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16848,7 +16842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16889,7 +16883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16930,7 +16924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16971,7 +16965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17012,7 +17006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17053,7 +17047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17094,7 +17088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17135,7 +17129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17176,7 +17170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17217,7 +17211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17258,7 +17252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17299,7 +17293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17340,7 +17334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17381,7 +17375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17422,7 +17416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -17463,7 +17457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -17504,7 +17498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -17545,7 +17539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -17586,7 +17580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -17627,7 +17621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -17668,7 +17662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -17709,7 +17703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -17750,7 +17744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17791,7 +17785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17832,7 +17826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17873,7 +17867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17914,7 +17908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17955,7 +17949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17996,7 +17990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -18037,7 +18031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -18078,7 +18072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -18119,7 +18113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -18160,7 +18154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -18201,7 +18195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18242,7 +18236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18283,7 +18277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18324,7 +18318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18365,7 +18359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18406,7 +18400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18447,7 +18441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18488,7 +18482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18529,7 +18523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18570,7 +18564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18611,7 +18605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18652,7 +18646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18693,7 +18687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18734,7 +18728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18775,7 +18769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18816,7 +18810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18857,7 +18851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18898,7 +18892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18939,7 +18933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18980,7 +18974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19021,7 +19015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -19062,7 +19056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -19103,7 +19097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -19144,7 +19138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19185,7 +19179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19226,7 +19220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19267,7 +19261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19308,7 +19302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -19349,7 +19343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19390,7 +19384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19431,7 +19425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19472,7 +19466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19513,7 +19507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19554,7 +19548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19595,7 +19589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19636,7 +19630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -19677,7 +19671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -19718,7 +19712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -19759,7 +19753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -19800,7 +19794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -19841,7 +19835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -19882,7 +19876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -19923,7 +19917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -19964,7 +19958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -20005,7 +19999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -20046,7 +20040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -20087,7 +20081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -20128,7 +20122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -20169,7 +20163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -20210,7 +20204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -20251,7 +20245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -20292,7 +20286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -20333,7 +20327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -20374,7 +20368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -20415,7 +20409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -20456,7 +20450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -20497,7 +20491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -20538,7 +20532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -20579,7 +20573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -20620,7 +20614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -20661,7 +20655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -20702,7 +20696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -20743,7 +20737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -20784,7 +20778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -20825,7 +20819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -20866,7 +20860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -20907,7 +20901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -20948,7 +20942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -20989,7 +20983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -21030,7 +21024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -21071,7 +21065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -21112,7 +21106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -21153,7 +21147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -21194,7 +21188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -21235,7 +21229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -21276,7 +21270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -21317,7 +21311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -21358,7 +21352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21399,7 +21393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21440,7 +21434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21481,7 +21475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21522,7 +21516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21563,7 +21557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21604,7 +21598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21645,7 +21639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -21686,7 +21680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -21727,7 +21721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -21768,7 +21762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -21809,7 +21803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -21850,7 +21844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -21891,7 +21885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -21932,7 +21926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -21973,7 +21967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -22014,7 +22008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -22055,7 +22049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -22096,7 +22090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -22137,7 +22131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -22178,7 +22172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -22219,7 +22213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -22260,7 +22254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -22301,7 +22295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -22342,7 +22336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -22383,7 +22377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -22424,7 +22418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -22465,7 +22459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -22506,7 +22500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -22547,7 +22541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -22588,7 +22582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -22629,7 +22623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -22670,7 +22664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22711,7 +22705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22752,7 +22746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22793,7 +22787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22834,7 +22828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22875,7 +22869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22916,7 +22910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22957,7 +22951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22998,7 +22992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -23039,7 +23033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -23080,7 +23074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -23121,7 +23115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -23162,7 +23156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -23203,7 +23197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -23244,7 +23238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -23285,7 +23279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -23326,7 +23320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -23367,7 +23361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -23408,7 +23402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -23449,7 +23443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -23490,7 +23484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -23531,7 +23525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -23572,7 +23566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -23613,7 +23607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -23654,7 +23648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -23695,7 +23689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -23736,7 +23730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -23777,7 +23771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -23818,7 +23812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -23859,7 +23853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -23900,7 +23894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -23941,7 +23935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -23982,7 +23976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -24023,7 +24017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -24064,7 +24058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -24105,7 +24099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -24146,7 +24140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -24187,7 +24181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -24228,7 +24222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -24269,7 +24263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -24310,7 +24304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -24351,7 +24345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -24392,7 +24386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -24433,7 +24427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -24474,7 +24468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -24515,7 +24509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -24556,7 +24550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -24597,7 +24591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -24638,7 +24632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -24679,7 +24673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -24720,7 +24714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -24761,7 +24755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -24802,7 +24796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -24843,7 +24837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -24884,7 +24878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -24925,7 +24919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -24966,7 +24960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -25007,7 +25001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -25048,7 +25042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -25089,7 +25083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -25130,7 +25124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -25171,7 +25165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -25212,7 +25206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -25253,7 +25247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -25294,7 +25288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -25335,7 +25329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -25376,7 +25370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -25417,7 +25411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -25458,7 +25452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -25499,7 +25493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -25540,7 +25534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -25581,7 +25575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -25622,7 +25616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -25663,7 +25657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -25704,7 +25698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -25745,7 +25739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -25786,7 +25780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -25827,7 +25821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -25868,7 +25862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -25909,7 +25903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -25950,7 +25944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -25991,7 +25985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -26032,7 +26026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -26073,7 +26067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -26114,7 +26108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -26155,7 +26149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -26196,7 +26190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -26237,7 +26231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -26278,7 +26272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -26319,7 +26313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -26360,7 +26354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -26401,7 +26395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -26442,7 +26436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -26483,7 +26477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -26524,7 +26518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -26565,7 +26559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -26606,7 +26600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -26647,7 +26641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -26688,7 +26682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -26729,7 +26723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -26770,7 +26764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -26811,7 +26805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -26852,7 +26846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -26893,7 +26887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -26934,7 +26928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -26975,7 +26969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -27016,7 +27010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -27057,7 +27051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -27098,7 +27092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -27139,7 +27133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -27180,7 +27174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -27221,7 +27215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -27262,7 +27256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -27303,7 +27297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -27344,7 +27338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -27385,7 +27379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -27426,7 +27420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -27467,7 +27461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -27508,7 +27502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -27549,7 +27543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -27590,7 +27584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -27631,7 +27625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -27672,7 +27666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -27713,7 +27707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -27754,7 +27748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -27795,7 +27789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -27836,7 +27830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -27877,7 +27871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -27918,7 +27912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -27959,7 +27953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -28000,7 +27994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -28041,7 +28035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -28082,7 +28076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -28123,7 +28117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -28164,7 +28158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -28205,7 +28199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -28246,7 +28240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -28287,7 +28281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -28328,7 +28322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -28369,7 +28363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -28410,7 +28404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -28451,7 +28445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -28492,7 +28486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -28533,7 +28527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -28574,7 +28568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -28615,7 +28609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -28656,7 +28650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -28697,7 +28691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -28738,7 +28732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -28779,7 +28773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -28820,7 +28814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -28861,7 +28855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -28902,7 +28896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -28943,7 +28937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -28984,7 +28978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -29025,7 +29019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -29066,7 +29060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -29107,7 +29101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -29148,7 +29142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -29189,7 +29183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -29230,7 +29224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -29271,7 +29265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -29312,7 +29306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -29353,7 +29347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -29394,7 +29388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -29435,7 +29429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -29476,7 +29470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -29517,7 +29511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -29558,7 +29552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -29599,7 +29593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -29640,7 +29634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -29681,7 +29675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -29722,7 +29716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -29763,7 +29757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -29804,7 +29798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -29845,7 +29839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -29886,7 +29880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -29927,7 +29921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -29968,7 +29962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -30009,7 +30003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -30050,7 +30044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -30091,7 +30085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -30132,7 +30126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -30173,7 +30167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -30214,7 +30208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -30255,7 +30249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -30296,7 +30290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -30337,7 +30331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -30378,7 +30372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -30419,7 +30413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -30460,7 +30454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -30501,7 +30495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -30542,7 +30536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -30583,7 +30577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -30624,7 +30618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -30665,7 +30659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -30706,7 +30700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -30747,7 +30741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -30788,7 +30782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -30829,7 +30823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -30870,7 +30864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -30911,7 +30905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -30952,7 +30946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -30993,7 +30987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -31034,7 +31028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -31075,7 +31069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -31116,7 +31110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -31157,7 +31151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -31198,7 +31192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -31239,7 +31233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -31280,7 +31274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -31321,7 +31315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -31362,7 +31356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -31403,7 +31397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -31444,7 +31438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -31485,7 +31479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -31526,7 +31520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -31567,7 +31561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -31608,7 +31602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -31649,7 +31643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -31690,7 +31684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -31731,7 +31725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -31772,7 +31766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -31813,7 +31807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -31854,7 +31848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -31895,7 +31889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -31936,7 +31930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -31977,7 +31971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -32018,7 +32012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -32059,7 +32053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -32100,7 +32094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -32141,7 +32135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -32182,7 +32176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -32223,7 +32217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -32264,7 +32258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -32305,7 +32299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -32346,7 +32340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -32387,7 +32381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -32428,7 +32422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -32469,7 +32463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -32522,17 +32516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C05B6-B1FC-4499-89F8-3B0EF4C0637B}">
   <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -32540,7 +32534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -32548,7 +32542,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -32556,7 +32550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -32577,23 +32571,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -32601,7 +32595,7 @@
         <v>5150.2655677655675</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -32609,7 +32603,7 @@
         <v>92.788627589064632</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -32617,7 +32611,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -32625,7 +32619,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -32633,7 +32627,7 @@
         <v>2168.1587252285572</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -32641,7 +32635,7 @@
         <v>4700912.2577847224</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -32649,7 +32643,7 @@
         <v>2.7625726744442067</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -32657,7 +32651,7 @@
         <v>1.3227579632815263</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -32665,7 +32659,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -32673,7 +32667,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -32681,7 +32675,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -32689,7 +32683,7 @@
         <v>2812045</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -32710,7 +32704,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
